--- a/data/trans_orig/p33_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/p33_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B642F5A-97D2-4E59-B61B-1AFE90974D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4874C1-2A60-4D6B-832C-0EEB62EA2628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{91ECB71A-6B95-497A-8057-83B9FEE664A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4EE8AD9-5732-4F23-82C8-FB2B542775ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
   <si>
     <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -77,1825 +77,1831 @@
     <t>16,5%</t>
   </si>
   <si>
-    <t>12,3%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2012 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
     <t>32,28%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
   </si>
   <si>
     <t>67,72%</t>
   </si>
   <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2016 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2023 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
     <t>68,24%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>36,77%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
   </si>
   <si>
     <t>63,23%</t>
   </si>
   <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>67,56%</t>
   </si>
   <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
   </si>
   <si>
     <t>45,01%</t>
   </si>
   <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
+    <t>49,61%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
   </si>
   <si>
     <t>54,99%</t>
   </si>
   <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
+    <t>50,39%</t>
   </si>
   <si>
     <t>59,87%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
   </si>
   <si>
     <t>65,1%</t>
   </si>
   <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>73,6%</t>
-  </si>
-  <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
   </si>
   <si>
     <t>45,64%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
   </si>
   <si>
     <t>69,04%</t>
   </si>
   <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
   </si>
   <si>
     <t>54,36%</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>89,31%</t>
   </si>
   <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>85,85%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>22,48%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>32,45%</t>
   </si>
   <si>
-    <t>29,85%</t>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
   </si>
   <si>
     <t>28,55%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>77,52%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>67,55%</t>
   </si>
   <si>
-    <t>70,15%</t>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>71,45%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DC77C7-AB43-4085-8C75-4B824CE44421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D65B4AC-C2DF-4C94-802F-6333527EF852}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2896,13 +2902,13 @@
         <v>45603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -2911,13 +2917,13 @@
         <v>67839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -2926,13 +2932,13 @@
         <v>113442</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2953,13 @@
         <v>303441</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
@@ -2962,13 +2968,13 @@
         <v>303617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>622</v>
@@ -2977,13 +2983,13 @@
         <v>607058</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,7 +3045,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3051,13 +3057,13 @@
         <v>51485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -3066,13 +3072,13 @@
         <v>61197</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -3081,13 +3087,13 @@
         <v>112682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3108,13 @@
         <v>151823</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -3117,13 +3123,13 @@
         <v>145477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>293</v>
@@ -3132,13 +3138,13 @@
         <v>297300</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3200,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3206,13 +3212,13 @@
         <v>42798</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -3221,13 +3227,13 @@
         <v>65739</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -3236,13 +3242,13 @@
         <v>108537</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3263,13 @@
         <v>226079</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -3272,13 +3278,13 @@
         <v>210421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>425</v>
@@ -3287,13 +3293,13 @@
         <v>436501</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,7 +3355,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3361,13 +3367,13 @@
         <v>93878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>145</v>
@@ -3376,13 +3382,13 @@
         <v>147865</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>237</v>
@@ -3391,13 +3397,13 @@
         <v>241743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3418,13 @@
         <v>512093</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>473</v>
@@ -3427,13 +3433,13 @@
         <v>486960</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>969</v>
@@ -3442,13 +3448,13 @@
         <v>999053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3510,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3516,13 +3522,13 @@
         <v>164428</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>170</v>
@@ -3531,13 +3537,13 @@
         <v>184864</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>333</v>
@@ -3546,13 +3552,13 @@
         <v>349292</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3573,13 @@
         <v>562257</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>568</v>
@@ -3582,13 +3588,13 @@
         <v>591729</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1124</v>
@@ -3597,13 +3603,13 @@
         <v>1153986</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3677,13 @@
         <v>598379</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>779</v>
@@ -3686,13 +3692,13 @@
         <v>807000</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>1365</v>
@@ -3701,13 +3707,13 @@
         <v>1405378</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3728,13 @@
         <v>2631226</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>2496</v>
@@ -3737,13 +3743,13 @@
         <v>2550138</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>5076</v>
@@ -3752,13 +3758,13 @@
         <v>5181365</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,7 +3820,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCB0A5B-13DA-4440-B0DF-692F2F8979C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4354A7-F333-411F-9ABB-1E8E9F9E6BE3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3855,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3960,39 +3966,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,39 +4011,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,39 +4056,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4105,13 @@
         <v>139460</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -4114,13 +4120,13 @@
         <v>184293</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>292</v>
@@ -4129,13 +4135,13 @@
         <v>323753</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4156,13 @@
         <v>362993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -4272,10 +4278,10 @@
         <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>199</v>
@@ -4284,13 +4290,13 @@
         <v>207290</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4311,13 @@
         <v>224562</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>211</v>
@@ -4320,13 +4326,13 @@
         <v>230208</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>434</v>
@@ -4335,13 +4341,13 @@
         <v>454770</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4415,13 @@
         <v>196680</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>257</v>
@@ -4424,13 +4430,13 @@
         <v>275493</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>440</v>
@@ -4439,13 +4445,13 @@
         <v>472173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4466,13 @@
         <v>470732</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -4475,13 +4481,13 @@
         <v>398549</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>810</v>
@@ -4490,13 +4496,13 @@
         <v>869281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,7 +4558,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4564,13 +4570,13 @@
         <v>66803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -4579,13 +4585,13 @@
         <v>88075</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -4594,13 +4600,13 @@
         <v>154878</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4621,13 @@
         <v>145815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>128</v>
@@ -4630,13 +4636,13 @@
         <v>130625</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>262</v>
@@ -4645,13 +4651,13 @@
         <v>276440</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,7 +4713,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4719,13 +4725,13 @@
         <v>68682</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -4734,13 +4740,13 @@
         <v>79866</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -4749,13 +4755,13 @@
         <v>148547</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4776,13 @@
         <v>205299</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -4785,13 +4791,13 @@
         <v>200165</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>386</v>
@@ -4800,13 +4806,13 @@
         <v>405465</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,7 +4868,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4874,13 +4880,13 @@
         <v>140126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
@@ -4889,13 +4895,13 @@
         <v>200396</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>319</v>
@@ -4904,13 +4910,13 @@
         <v>340521</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4931,13 @@
         <v>519752</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>449</v>
@@ -4940,13 +4946,13 @@
         <v>492196</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>932</v>
@@ -4955,13 +4961,13 @@
         <v>1011949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5023,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5029,13 +5035,13 @@
         <v>176290</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -5044,13 +5050,13 @@
         <v>214827</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>356</v>
@@ -5059,13 +5065,13 @@
         <v>391117</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5086,13 @@
         <v>599887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>557</v>
@@ -5095,13 +5101,13 @@
         <v>603981</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>1110</v>
@@ -5110,13 +5116,13 @@
         <v>1203868</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5190,13 @@
         <v>884519</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H28" s="7">
         <v>1070</v>
@@ -5199,13 +5205,13 @@
         <v>1153761</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="M28" s="7">
         <v>1895</v>
@@ -5214,13 +5220,13 @@
         <v>2038280</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5241,13 @@
         <v>2529041</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H29" s="7">
         <v>2219</v>
@@ -5250,13 +5256,13 @@
         <v>2395197</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M29" s="7">
         <v>4591</v>
@@ -5265,13 +5271,13 @@
         <v>4924238</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,7 +5333,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5351,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCBC82-98A8-4C37-82A6-F680E3AB6A0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBC637-90DE-4236-8AAB-ABCE4EDC7ABF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5368,7 +5374,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5475,13 +5481,13 @@
         <v>95575</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>101</v>
@@ -5490,13 +5496,13 @@
         <v>103561</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -5505,13 +5511,13 @@
         <v>199136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5532,13 @@
         <v>196599</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -5541,13 +5547,13 @@
         <v>179921</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>350</v>
@@ -5556,13 +5562,13 @@
         <v>376520</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5636,13 @@
         <v>132358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H7" s="7">
         <v>169</v>
@@ -5645,13 +5651,13 @@
         <v>192786</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>298</v>
@@ -5660,13 +5666,13 @@
         <v>325144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5687,13 @@
         <v>370217</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="H8" s="7">
         <v>315</v>
@@ -5696,13 +5702,13 @@
         <v>330298</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>661</v>
@@ -5711,13 +5717,13 @@
         <v>700515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,10 +5794,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -5800,13 +5806,13 @@
         <v>72850</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -5815,13 +5821,13 @@
         <v>113698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,10 +5845,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -5851,13 +5857,13 @@
         <v>263459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>554</v>
@@ -5866,13 +5872,13 @@
         <v>541176</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5946,13 @@
         <v>126378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -5955,13 +5961,13 @@
         <v>159685</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -5970,13 +5976,13 @@
         <v>286063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5997,13 @@
         <v>242773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -6006,13 +6012,13 @@
         <v>222277</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>439</v>
@@ -6021,13 +6027,13 @@
         <v>465051</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,7 +6089,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6095,13 +6101,13 @@
         <v>16242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -6110,13 +6116,13 @@
         <v>18309</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -6125,13 +6131,13 @@
         <v>34552</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6152,13 @@
         <v>194979</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -6161,13 +6167,13 @@
         <v>200278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -6176,13 +6182,13 @@
         <v>395256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,7 +6244,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6250,13 +6256,13 @@
         <v>52564</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -6265,13 +6271,13 @@
         <v>83827</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -6280,13 +6286,13 @@
         <v>136392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6307,13 @@
         <v>210559</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -6316,13 +6322,13 @@
         <v>188323</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>392</v>
@@ -6331,13 +6337,13 @@
         <v>398881</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,7 +6399,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6405,13 +6411,13 @@
         <v>176228</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>189</v>
@@ -6420,13 +6426,13 @@
         <v>209226</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>347</v>
@@ -6435,13 +6441,13 @@
         <v>385454</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6462,13 @@
         <v>475964</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>455</v>
@@ -6471,13 +6477,13 @@
         <v>480115</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>873</v>
@@ -6486,13 +6492,13 @@
         <v>956078</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,7 +6554,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6560,13 +6566,13 @@
         <v>146428</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>146</v>
@@ -6575,13 +6581,13 @@
         <v>166660</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>288</v>
@@ -6590,13 +6596,13 @@
         <v>313088</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>19</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>71</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>360</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6617,13 @@
         <v>632155</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>608</v>
@@ -6626,13 +6632,13 @@
         <v>658427</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>1216</v>
@@ -6641,13 +6647,13 @@
         <v>1290582</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>28</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>78</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6721,13 @@
         <v>786621</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>917</v>
@@ -6730,13 +6736,13 @@
         <v>1006904</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>1664</v>
@@ -6745,13 +6751,13 @@
         <v>1793526</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6772,13 @@
         <v>2600963</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>2408</v>
@@ -6781,13 +6787,13 @@
         <v>2523098</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>4886</v>
@@ -6796,13 +6802,13 @@
         <v>5124061</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,7 +6864,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6882,7 +6888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDB90E4-4039-4372-86DD-DB6903C9939B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3644A0F6-7D46-4D73-8A0A-F0D9FC0B595F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6899,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7006,13 +7012,13 @@
         <v>84037</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>272</v>
+        <v>467</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H4" s="7">
         <v>197</v>
@@ -7021,13 +7027,13 @@
         <v>96806</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>307</v>
@@ -7036,13 +7042,13 @@
         <v>180843</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7063,13 @@
         <v>176261</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H5" s="7">
         <v>341</v>
@@ -7161,10 +7167,10 @@
         <v>120496</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>486</v>
@@ -7212,13 +7218,13 @@
         <v>305766</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>417</v>
@@ -7322,7 +7328,7 @@
         <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>185</v>
@@ -7331,13 +7337,13 @@
         <v>117378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M10" s="7">
         <v>290</v>
@@ -7346,13 +7352,13 @@
         <v>202336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7373,13 @@
         <v>234754</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>511</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H11" s="7">
         <v>344</v>
@@ -7382,13 +7388,13 @@
         <v>252219</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M11" s="7">
         <v>596</v>
@@ -7397,13 +7403,13 @@
         <v>486972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7477,13 @@
         <v>85053</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H13" s="7">
         <v>243</v>
@@ -7486,13 +7492,13 @@
         <v>150179</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M13" s="7">
         <v>330</v>
@@ -7501,13 +7507,13 @@
         <v>235232</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7528,13 @@
         <v>231647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H14" s="7">
         <v>320</v>
@@ -7537,13 +7543,13 @@
         <v>258227</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>517</v>
@@ -7552,13 +7558,13 @@
         <v>489874</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,7 +7620,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7626,13 +7632,13 @@
         <v>67665</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -7641,13 +7647,13 @@
         <v>104222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>472</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M16" s="7">
         <v>341</v>
@@ -7656,13 +7662,13 @@
         <v>171887</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7683,13 @@
         <v>129083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H17" s="7">
         <v>254</v>
@@ -7692,13 +7698,13 @@
         <v>127330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>549</v>
+        <v>480</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -7769,7 +7775,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7814,10 +7820,10 @@
         <v>559</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>560</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>344</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7838,13 @@
         <v>212099</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H20" s="7">
         <v>268</v>
@@ -7847,13 +7853,13 @@
         <v>179193</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>535</v>
@@ -7862,13 +7868,13 @@
         <v>391292</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>354</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,7 +7930,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7936,13 +7942,13 @@
         <v>194350</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>364</v>
@@ -7951,13 +7957,13 @@
         <v>364620</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="M22" s="7">
         <v>566</v>
@@ -7966,13 +7972,13 @@
         <v>558969</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +7993,13 @@
         <v>433404</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>585</v>
@@ -8002,13 +8008,13 @@
         <v>434282</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>982</v>
@@ -8017,13 +8023,13 @@
         <v>867687</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,7 +8085,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8091,13 +8097,13 @@
         <v>91874</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>163</v>
@@ -8106,13 +8112,13 @@
         <v>122336</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>262</v>
@@ -8121,13 +8127,13 @@
         <v>214210</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,13 +8148,13 @@
         <v>767554</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>896</v>
@@ -8157,13 +8163,13 @@
         <v>742111</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>1559</v>
@@ -8172,13 +8178,13 @@
         <v>1509665</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,13 +8252,13 @@
         <v>793557</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>1783</v>
@@ -8261,13 +8267,13 @@
         <v>1199472</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M28" s="7">
         <v>2689</v>
@@ -8294,16 +8300,16 @@
         <v>2399</v>
       </c>
       <c r="D29" s="7">
-        <v>2490568</v>
+        <v>2490567</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>612</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>613</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H29" s="7">
         <v>3425</v>
@@ -8312,28 +8318,28 @@
         <v>2496598</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M29" s="7">
         <v>5824</v>
       </c>
       <c r="N29" s="7">
-        <v>4987165</v>
+        <v>4987166</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8345,7 +8351,7 @@
         <v>3305</v>
       </c>
       <c r="D30" s="7">
-        <v>3284125</v>
+        <v>3284124</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8375,7 +8381,7 @@
         <v>8513</v>
       </c>
       <c r="N30" s="7">
-        <v>6980194</v>
+        <v>6980195</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8389,7 +8395,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/p33_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/p33_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4874C1-2A60-4D6B-832C-0EEB62EA2628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ADA7CB0-FA02-4A6B-8C36-9871917A7088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4EE8AD9-5732-4F23-82C8-FB2B542775ED}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0687F339-34C0-462E-BF9A-84F801B2F72F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="628">
   <si>
     <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
   </si>
   <si>
     <t>27,76%</t>
@@ -680,1228 +731,1198 @@
     <t>72,58%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2023 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>32,56%</t>
   </si>
   <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2016 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño) en 2023 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D65B4AC-C2DF-4C94-802F-6333527EF852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3DF9E4-8BDA-4E42-9595-F68815744838}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2825,7 +2846,7 @@
         <v>532</v>
       </c>
       <c r="N11" s="7">
-        <v>537691</v>
+        <v>537692</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2876,7 +2897,7 @@
         <v>636</v>
       </c>
       <c r="N12" s="7">
-        <v>645448</v>
+        <v>645449</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4354A7-F333-411F-9ABB-1E8E9F9E6BE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D7B788-ADA7-46CF-A0E9-EB2196249D29}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3962,43 +3983,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="D4" s="7">
+        <v>77078</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="I4" s="7">
+        <v>102658</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="N4" s="7">
+        <v>179736</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,43 +4034,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>206</v>
+      </c>
+      <c r="D5" s="7">
+        <v>216352</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>163</v>
+      </c>
+      <c r="I5" s="7">
+        <v>183605</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>369</v>
+      </c>
+      <c r="N5" s="7">
+        <v>399957</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,43 +4085,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D6" s="7">
+        <v>293430</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="I6" s="7">
+        <v>286263</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N6" s="7">
+        <v>579693</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4144,13 @@
         <v>139460</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -4120,13 +4159,13 @@
         <v>184293</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>292</v>
@@ -4135,13 +4174,13 @@
         <v>323753</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,10 +4195,10 @@
         <v>362993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>41</v>
@@ -4171,13 +4210,13 @@
         <v>339472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>657</v>
@@ -4186,13 +4225,13 @@
         <v>702465</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4299,13 @@
         <v>96478</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -4275,13 +4314,13 @@
         <v>110812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>199</v>
@@ -4290,13 +4329,13 @@
         <v>207290</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4350,13 @@
         <v>224562</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="H11" s="7">
         <v>211</v>
@@ -4326,10 +4365,10 @@
         <v>230208</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>157</v>
@@ -4341,13 +4380,13 @@
         <v>454770</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,49 +4448,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="D13" s="7">
-        <v>196680</v>
+        <v>119603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>257</v>
+        <v>165</v>
       </c>
       <c r="I13" s="7">
-        <v>275493</v>
+        <v>172834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
-        <v>440</v>
+        <v>273</v>
       </c>
       <c r="N13" s="7">
-        <v>472173</v>
+        <v>292437</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,49 +4499,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>442</v>
+        <v>236</v>
       </c>
       <c r="D14" s="7">
-        <v>470732</v>
+        <v>254379</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="I14" s="7">
-        <v>398549</v>
+        <v>214945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>810</v>
+        <v>441</v>
       </c>
       <c r="N14" s="7">
-        <v>869281</v>
+        <v>469324</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,10 +4550,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>625</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>667412</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4526,10 +4565,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>625</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>674042</v>
+        <v>387779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4541,10 +4580,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1250</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1341454</v>
+        <v>761761</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4570,13 +4609,13 @@
         <v>66803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -4585,13 +4624,13 @@
         <v>88075</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -4600,13 +4639,13 @@
         <v>154878</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4660,13 @@
         <v>145815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>128</v>
@@ -4636,13 +4675,13 @@
         <v>130625</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>262</v>
@@ -4651,13 +4690,13 @@
         <v>276440</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4764,13 @@
         <v>68682</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -4740,13 +4779,13 @@
         <v>79866</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -4755,13 +4794,13 @@
         <v>148547</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4815,13 @@
         <v>205299</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -4791,13 +4830,13 @@
         <v>200165</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>386</v>
@@ -4806,13 +4845,13 @@
         <v>405465</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4919,13 @@
         <v>140126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
@@ -4895,13 +4934,13 @@
         <v>200396</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>319</v>
@@ -4910,13 +4949,13 @@
         <v>340521</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4970,13 @@
         <v>519752</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>449</v>
@@ -4946,13 +4985,13 @@
         <v>492196</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>932</v>
@@ -4961,13 +5000,13 @@
         <v>1011949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5074,13 @@
         <v>176290</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -5050,13 +5089,13 @@
         <v>214827</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>356</v>
@@ -5065,13 +5104,13 @@
         <v>391117</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,10 +5125,10 @@
         <v>599887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>43</v>
@@ -5101,13 +5140,13 @@
         <v>603981</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="M26" s="7">
         <v>1110</v>
@@ -5116,13 +5155,13 @@
         <v>1203868</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5229,13 @@
         <v>884519</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
         <v>1070</v>
@@ -5205,28 +5244,28 @@
         <v>1153761</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>1895</v>
       </c>
       <c r="N28" s="7">
-        <v>2038280</v>
+        <v>2038279</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5280,13 @@
         <v>2529041</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>2219</v>
@@ -5256,13 +5295,13 @@
         <v>2395197</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>4591</v>
@@ -5271,13 +5310,13 @@
         <v>4924238</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,7 +5358,7 @@
         <v>6486</v>
       </c>
       <c r="N30" s="7">
-        <v>6962518</v>
+        <v>6962517</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5357,7 +5396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBC637-90DE-4236-8AAB-ABCE4EDC7ABF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6953651-CB8C-4773-9D74-C7E143A75545}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,7 +5413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,13 +5520,13 @@
         <v>95575</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>101</v>
@@ -5496,13 +5535,13 @@
         <v>103561</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -5511,13 +5550,13 @@
         <v>199136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5571,13 @@
         <v>196599</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -5547,13 +5586,13 @@
         <v>179921</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>350</v>
@@ -5562,13 +5601,13 @@
         <v>376520</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5675,13 @@
         <v>132358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="H7" s="7">
         <v>169</v>
@@ -5651,13 +5690,13 @@
         <v>192786</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>298</v>
@@ -5666,13 +5705,13 @@
         <v>325144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5726,13 @@
         <v>370217</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>315</v>
@@ -5702,13 +5741,13 @@
         <v>330298</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>661</v>
@@ -5717,13 +5756,13 @@
         <v>700515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,10 +5833,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -5806,13 +5845,13 @@
         <v>72850</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -5821,13 +5860,13 @@
         <v>113698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,10 +5884,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -5857,13 +5896,13 @@
         <v>263459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>554</v>
@@ -5872,13 +5911,13 @@
         <v>541176</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5985,13 @@
         <v>126378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -5961,13 +6000,13 @@
         <v>159685</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -5976,13 +6015,13 @@
         <v>286063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6036,13 @@
         <v>242773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -6012,28 +6051,28 @@
         <v>222277</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>439</v>
       </c>
       <c r="N14" s="7">
-        <v>465051</v>
+        <v>465050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,7 +6114,7 @@
         <v>707</v>
       </c>
       <c r="N15" s="7">
-        <v>751114</v>
+        <v>751113</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6101,13 +6140,13 @@
         <v>16242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -6116,13 +6155,13 @@
         <v>18309</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -6131,13 +6170,13 @@
         <v>34552</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6191,13 @@
         <v>194979</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -6167,13 +6206,13 @@
         <v>200278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>401</v>
@@ -6182,13 +6221,13 @@
         <v>395256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6295,13 @@
         <v>52564</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -6271,13 +6310,13 @@
         <v>83827</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -6286,13 +6325,13 @@
         <v>136392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6346,13 @@
         <v>210559</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -6322,13 +6361,13 @@
         <v>188323</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>392</v>
@@ -6337,13 +6376,13 @@
         <v>398881</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6450,13 @@
         <v>176228</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>189</v>
@@ -6426,13 +6465,13 @@
         <v>209226</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>347</v>
@@ -6441,13 +6480,13 @@
         <v>385454</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,16 +6498,16 @@
         <v>418</v>
       </c>
       <c r="D23" s="7">
-        <v>475964</v>
+        <v>475963</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="H23" s="7">
         <v>455</v>
@@ -6477,13 +6516,13 @@
         <v>480115</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>873</v>
@@ -6492,13 +6531,13 @@
         <v>956078</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,7 +6549,7 @@
         <v>576</v>
       </c>
       <c r="D24" s="7">
-        <v>652192</v>
+        <v>652191</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6566,13 +6605,13 @@
         <v>146428</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="H25" s="7">
         <v>146</v>
@@ -6581,13 +6620,13 @@
         <v>166660</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="M25" s="7">
         <v>288</v>
@@ -6599,10 +6638,10 @@
         <v>19</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6656,13 @@
         <v>632155</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="H26" s="7">
         <v>608</v>
@@ -6632,13 +6671,13 @@
         <v>658427</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="M26" s="7">
         <v>1216</v>
@@ -6650,10 +6689,10 @@
         <v>28</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6760,13 @@
         <v>786621</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="H28" s="7">
         <v>917</v>
@@ -6736,13 +6775,13 @@
         <v>1006904</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>1664</v>
@@ -6751,13 +6790,13 @@
         <v>1793526</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6811,13 @@
         <v>2600963</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>2408</v>
@@ -6787,13 +6826,13 @@
         <v>2523098</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="M29" s="7">
         <v>4886</v>
@@ -6802,13 +6841,13 @@
         <v>5124061</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,7 +6927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3644A0F6-7D46-4D73-8A0A-F0D9FC0B595F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA047011-DBAE-40EA-9EDC-8E2C57030DFB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7009,46 +7048,46 @@
         <v>110</v>
       </c>
       <c r="D4" s="7">
-        <v>84037</v>
+        <v>96882</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="H4" s="7">
         <v>197</v>
       </c>
       <c r="I4" s="7">
-        <v>96806</v>
+        <v>101392</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="M4" s="7">
         <v>307</v>
       </c>
       <c r="N4" s="7">
-        <v>180843</v>
+        <v>198274</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,46 +7099,46 @@
         <v>221</v>
       </c>
       <c r="D5" s="7">
-        <v>176261</v>
+        <v>214561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="H5" s="7">
         <v>341</v>
       </c>
       <c r="I5" s="7">
-        <v>174597</v>
+        <v>188243</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="M5" s="7">
         <v>562</v>
       </c>
       <c r="N5" s="7">
-        <v>350857</v>
+        <v>402803</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,7 +7150,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7126,7 +7165,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7141,7 +7180,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7164,46 +7203,46 @@
         <v>95</v>
       </c>
       <c r="D7" s="7">
-        <v>120496</v>
+        <v>117627</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>485</v>
+        <v>300</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
       </c>
       <c r="I7" s="7">
-        <v>147878</v>
+        <v>136741</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="M7" s="7">
         <v>298</v>
       </c>
       <c r="N7" s="7">
-        <v>268373</v>
+        <v>254368</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,46 +7254,46 @@
         <v>227</v>
       </c>
       <c r="D8" s="7">
-        <v>305766</v>
+        <v>305594</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>494</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
         <v>417</v>
       </c>
       <c r="I8" s="7">
-        <v>328640</v>
+        <v>305678</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="M8" s="7">
         <v>644</v>
       </c>
       <c r="N8" s="7">
-        <v>634407</v>
+        <v>611272</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,7 +7305,7 @@
         <v>322</v>
       </c>
       <c r="D9" s="7">
-        <v>426262</v>
+        <v>423221</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7281,7 +7320,7 @@
         <v>620</v>
       </c>
       <c r="I9" s="7">
-        <v>476518</v>
+        <v>442419</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7296,7 +7335,7 @@
         <v>942</v>
       </c>
       <c r="N9" s="7">
-        <v>902780</v>
+        <v>865640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7319,46 +7358,46 @@
         <v>105</v>
       </c>
       <c r="D10" s="7">
-        <v>84958</v>
+        <v>81943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>185</v>
       </c>
       <c r="I10" s="7">
-        <v>117378</v>
+        <v>108945</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="M10" s="7">
         <v>290</v>
       </c>
       <c r="N10" s="7">
-        <v>202336</v>
+        <v>190888</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,46 +7409,46 @@
         <v>252</v>
       </c>
       <c r="D11" s="7">
-        <v>234754</v>
+        <v>231649</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="H11" s="7">
         <v>344</v>
       </c>
       <c r="I11" s="7">
-        <v>252219</v>
+        <v>236741</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>515</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
         <v>596</v>
       </c>
       <c r="N11" s="7">
-        <v>486972</v>
+        <v>468390</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,7 +7460,7 @@
         <v>357</v>
       </c>
       <c r="D12" s="7">
-        <v>319712</v>
+        <v>313592</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7436,7 +7475,7 @@
         <v>529</v>
       </c>
       <c r="I12" s="7">
-        <v>369597</v>
+        <v>345686</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7451,7 +7490,7 @@
         <v>886</v>
       </c>
       <c r="N12" s="7">
-        <v>689308</v>
+        <v>659278</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7474,46 +7513,46 @@
         <v>87</v>
       </c>
       <c r="D13" s="7">
-        <v>85053</v>
+        <v>81591</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>520</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>243</v>
       </c>
       <c r="I13" s="7">
-        <v>150179</v>
+        <v>139419</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>330</v>
       </c>
       <c r="N13" s="7">
-        <v>235232</v>
+        <v>221010</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,46 +7564,46 @@
         <v>197</v>
       </c>
       <c r="D14" s="7">
-        <v>231647</v>
+        <v>225655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>530</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>320</v>
       </c>
       <c r="I14" s="7">
-        <v>258227</v>
+        <v>317580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="M14" s="7">
         <v>517</v>
       </c>
       <c r="N14" s="7">
-        <v>489874</v>
+        <v>543235</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,7 +7615,7 @@
         <v>284</v>
       </c>
       <c r="D15" s="7">
-        <v>316700</v>
+        <v>307246</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7591,7 +7630,7 @@
         <v>563</v>
       </c>
       <c r="I15" s="7">
-        <v>408406</v>
+        <v>456999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7606,7 +7645,7 @@
         <v>847</v>
       </c>
       <c r="N15" s="7">
-        <v>725106</v>
+        <v>764245</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7629,46 +7668,46 @@
         <v>104</v>
       </c>
       <c r="D16" s="7">
-        <v>67665</v>
+        <v>61689</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>539</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
       </c>
       <c r="I16" s="7">
-        <v>104222</v>
+        <v>94077</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>472</v>
+        <v>549</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>341</v>
       </c>
       <c r="N16" s="7">
-        <v>171887</v>
+        <v>155766</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,46 +7719,46 @@
         <v>175</v>
       </c>
       <c r="D17" s="7">
-        <v>129083</v>
+        <v>117053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>546</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="H17" s="7">
         <v>254</v>
       </c>
       <c r="I17" s="7">
-        <v>127330</v>
+        <v>114251</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
       </c>
       <c r="N17" s="7">
-        <v>256412</v>
+        <v>231304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,7 +7770,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7746,7 +7785,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231552</v>
+        <v>208328</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7761,7 +7800,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428299</v>
+        <v>387070</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7784,46 +7823,46 @@
         <v>104</v>
       </c>
       <c r="D19" s="7">
-        <v>65124</v>
+        <v>62425</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="H19" s="7">
         <v>191</v>
       </c>
       <c r="I19" s="7">
-        <v>96053</v>
+        <v>89630</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="M19" s="7">
         <v>295</v>
       </c>
       <c r="N19" s="7">
-        <v>161177</v>
+        <v>152054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>569</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,46 +7874,46 @@
         <v>267</v>
       </c>
       <c r="D20" s="7">
-        <v>212099</v>
+        <v>207211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="H20" s="7">
         <v>268</v>
       </c>
       <c r="I20" s="7">
-        <v>179193</v>
+        <v>167077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="M20" s="7">
         <v>535</v>
       </c>
       <c r="N20" s="7">
-        <v>391292</v>
+        <v>374289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>578</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,7 +7925,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7901,7 +7940,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>275246</v>
+        <v>256707</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7916,7 +7955,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552469</v>
+        <v>526343</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7939,46 +7978,46 @@
         <v>202</v>
       </c>
       <c r="D22" s="7">
-        <v>194350</v>
+        <v>194108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>364</v>
       </c>
       <c r="I22" s="7">
-        <v>364620</v>
+        <v>440070</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>566</v>
       </c>
       <c r="N22" s="7">
-        <v>558969</v>
+        <v>634178</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,46 +8029,46 @@
         <v>397</v>
       </c>
       <c r="D23" s="7">
-        <v>433404</v>
+        <v>430171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>578</v>
+        <v>510</v>
       </c>
       <c r="H23" s="7">
         <v>585</v>
       </c>
       <c r="I23" s="7">
-        <v>434282</v>
+        <v>404265</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="M23" s="7">
         <v>982</v>
       </c>
       <c r="N23" s="7">
-        <v>867687</v>
+        <v>834436</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,7 +8080,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8056,7 +8095,7 @@
         <v>949</v>
       </c>
       <c r="I24" s="7">
-        <v>798902</v>
+        <v>844335</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8071,7 +8110,7 @@
         <v>1548</v>
       </c>
       <c r="N24" s="7">
-        <v>1426656</v>
+        <v>1468614</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8094,46 +8133,46 @@
         <v>99</v>
       </c>
       <c r="D25" s="7">
-        <v>91874</v>
+        <v>78437</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="H25" s="7">
         <v>163</v>
       </c>
       <c r="I25" s="7">
-        <v>122336</v>
+        <v>100722</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="M25" s="7">
         <v>262</v>
       </c>
       <c r="N25" s="7">
-        <v>214210</v>
+        <v>179159</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,46 +8184,46 @@
         <v>663</v>
       </c>
       <c r="D26" s="7">
-        <v>767554</v>
+        <v>850283</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="H26" s="7">
         <v>896</v>
       </c>
       <c r="I26" s="7">
-        <v>742111</v>
+        <v>613619</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="M26" s="7">
         <v>1559</v>
       </c>
       <c r="N26" s="7">
-        <v>1509665</v>
+        <v>1463903</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,7 +8235,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8211,7 +8250,7 @@
         <v>1059</v>
       </c>
       <c r="I27" s="7">
-        <v>864447</v>
+        <v>714341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8226,7 +8265,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1723875</v>
+        <v>1643062</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8249,46 +8288,46 @@
         <v>906</v>
       </c>
       <c r="D28" s="7">
-        <v>793557</v>
+        <v>774702</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="H28" s="7">
         <v>1783</v>
       </c>
       <c r="I28" s="7">
-        <v>1199472</v>
+        <v>1210995</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>607</v>
+        <v>320</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="M28" s="7">
         <v>2689</v>
       </c>
       <c r="N28" s="7">
-        <v>1993029</v>
+        <v>1985697</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,46 +8339,46 @@
         <v>2399</v>
       </c>
       <c r="D29" s="7">
-        <v>2490567</v>
+        <v>2582177</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="H29" s="7">
         <v>3425</v>
       </c>
       <c r="I29" s="7">
-        <v>2496598</v>
+        <v>2347455</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>329</v>
       </c>
       <c r="M29" s="7">
         <v>5824</v>
       </c>
       <c r="N29" s="7">
-        <v>4987166</v>
+        <v>4929632</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,7 +8390,7 @@
         <v>3305</v>
       </c>
       <c r="D30" s="7">
-        <v>3284124</v>
+        <v>3356879</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8366,7 +8405,7 @@
         <v>5208</v>
       </c>
       <c r="I30" s="7">
-        <v>3696070</v>
+        <v>3558450</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8381,7 +8420,7 @@
         <v>8513</v>
       </c>
       <c r="N30" s="7">
-        <v>6980195</v>
+        <v>6915329</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
